--- a/Excel/DEMOption.xlsx
+++ b/Excel/DEMOption.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perforce\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1DD20B-09B4-40CD-B66A-E9608BE659C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060C86C0-667A-4E10-99B2-0C1E2ACC67E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
   </bookViews>
@@ -447,7 +447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,15 +507,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -836,7 +840,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -915,8 +919,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A4:G4">
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="equal">
+  <conditionalFormatting sqref="A4:B4 D4:G4">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -992,13 +1001,13 @@
       <c r="G6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="15" t="s">
@@ -1019,13 +1028,13 @@
         <v>40</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="15" t="s">
